--- a/enumerate2.xlsx
+++ b/enumerate2.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hywanae\OneDrive - HKUST Connect\Desktop\ct_timedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC74BB9-1C8B-4049-A79B-AE11CE3A03D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93967F44-2BEB-4DA5-9234-744BEA26E815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +369,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,7 +542,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,6 +550,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,10 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW101"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:CX102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CU85" sqref="CU85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1423,7 @@
       <c r="B3">
         <v>0.01</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -1715,7 +1730,7 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -2022,7 +2037,7 @@
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
@@ -2329,7 +2344,7 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -2633,10 +2648,10 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -2943,7 +2958,7 @@
       <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -3250,7 +3265,7 @@
       <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="s">
@@ -3557,7 +3572,7 @@
       <c r="I10" t="s">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
@@ -3864,7 +3879,7 @@
       <c r="J11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L11" t="s">
@@ -4171,7 +4186,7 @@
       <c r="K12" t="s">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
@@ -4478,7 +4493,7 @@
       <c r="L13" t="s">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N13" t="s">
@@ -4785,7 +4800,7 @@
       <c r="M14" t="s">
         <v>0</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O14" t="s">
@@ -5092,7 +5107,7 @@
       <c r="N15" t="s">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P15" t="s">
@@ -5399,7 +5414,7 @@
       <c r="O16" t="s">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Q16" t="s">
@@ -5706,7 +5721,7 @@
       <c r="P17" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R17" t="s">
@@ -6013,7 +6028,7 @@
       <c r="Q18" t="s">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="S18" t="s">
@@ -6320,7 +6335,7 @@
       <c r="R19" t="s">
         <v>0</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="T19" t="s">
@@ -6627,7 +6642,7 @@
       <c r="S20" t="s">
         <v>0</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="U20" t="s">
@@ -6934,7 +6949,7 @@
       <c r="T21" t="s">
         <v>0</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="V21" t="s">
@@ -7241,7 +7256,7 @@
       <c r="U22" t="s">
         <v>0</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="W22" t="s">
@@ -7548,7 +7563,7 @@
       <c r="V23" t="s">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X23" t="s">
@@ -7855,7 +7870,7 @@
       <c r="W24" t="s">
         <v>0</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y24" t="s">
@@ -8162,7 +8177,7 @@
       <c r="X25" t="s">
         <v>0</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z25" t="s">
@@ -8469,7 +8484,7 @@
       <c r="Y26" t="s">
         <v>0</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Z26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
@@ -8776,7 +8791,7 @@
       <c r="Z27" t="s">
         <v>0</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AA27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AB27" t="s">
@@ -9083,7 +9098,7 @@
       <c r="AA28" t="s">
         <v>0</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AB28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AC28" t="s">
@@ -9390,7 +9405,7 @@
       <c r="AB29" t="s">
         <v>0</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AC29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AD29" t="s">
@@ -9697,7 +9712,7 @@
       <c r="AC30" t="s">
         <v>0</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AE30" t="s">
@@ -10004,7 +10019,7 @@
       <c r="AD31" t="s">
         <v>0</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AF31" t="s">
@@ -10311,7 +10326,7 @@
       <c r="AE32" t="s">
         <v>0</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AF32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AG32" t="s">
@@ -10618,7 +10633,7 @@
       <c r="AF33" t="s">
         <v>0</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AH33" t="s">
@@ -10925,7 +10940,7 @@
       <c r="AG34" t="s">
         <v>0</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AH34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AI34" t="s">
@@ -11232,7 +11247,7 @@
       <c r="AH35" t="s">
         <v>0</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AI35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
@@ -11539,7 +11554,7 @@
       <c r="AI36" t="s">
         <v>0</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AJ36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AK36" t="s">
@@ -11846,7 +11861,7 @@
       <c r="AJ37" t="s">
         <v>0</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AK37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AL37" t="s">
@@ -12153,7 +12168,7 @@
       <c r="AK38" t="s">
         <v>0</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AL38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AM38" t="s">
@@ -12460,7 +12475,7 @@
       <c r="AL39" t="s">
         <v>0</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="AM39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AN39" t="s">
@@ -12767,7 +12782,7 @@
       <c r="AM40" t="s">
         <v>0</v>
       </c>
-      <c r="AN40" t="s">
+      <c r="AN40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AO40" t="s">
@@ -13074,7 +13089,7 @@
       <c r="AN41" t="s">
         <v>0</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AO41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AP41" t="s">
@@ -13381,7 +13396,7 @@
       <c r="AO42" t="s">
         <v>0</v>
       </c>
-      <c r="AP42" t="s">
+      <c r="AP42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AQ42" t="s">
@@ -13688,7 +13703,7 @@
       <c r="AP43" t="s">
         <v>0</v>
       </c>
-      <c r="AQ43" t="s">
+      <c r="AQ43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
@@ -13995,7 +14010,7 @@
       <c r="AQ44" t="s">
         <v>0</v>
       </c>
-      <c r="AR44" t="s">
+      <c r="AR44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS44" t="s">
@@ -14302,7 +14317,7 @@
       <c r="AR45" t="s">
         <v>0</v>
       </c>
-      <c r="AS45" t="s">
+      <c r="AS45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AT45" t="s">
@@ -14609,7 +14624,7 @@
       <c r="AS46" t="s">
         <v>0</v>
       </c>
-      <c r="AT46" t="s">
+      <c r="AT46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AU46" t="s">
@@ -14916,7 +14931,7 @@
       <c r="AT47" t="s">
         <v>0</v>
       </c>
-      <c r="AU47" t="s">
+      <c r="AU47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AV47" t="s">
@@ -15223,7 +15238,7 @@
       <c r="AU48" t="s">
         <v>0</v>
       </c>
-      <c r="AV48" t="s">
+      <c r="AV48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AW48" t="s">
@@ -15530,7 +15545,7 @@
       <c r="AV49" t="s">
         <v>0</v>
       </c>
-      <c r="AW49" t="s">
+      <c r="AW49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AX49" t="s">
@@ -15837,7 +15852,7 @@
       <c r="AW50" t="s">
         <v>0</v>
       </c>
-      <c r="AX50" t="s">
+      <c r="AX50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AY50" t="s">
@@ -16144,7 +16159,7 @@
       <c r="AX51" t="s">
         <v>0</v>
       </c>
-      <c r="AY51" t="s">
+      <c r="AY51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AZ51" t="s">
@@ -16451,7 +16466,7 @@
       <c r="AY52" t="s">
         <v>0</v>
       </c>
-      <c r="AZ52" t="s">
+      <c r="AZ52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BA52" t="s">
@@ -16758,7 +16773,7 @@
       <c r="AZ53" t="s">
         <v>0</v>
       </c>
-      <c r="BA53" t="s">
+      <c r="BA53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BB53" t="s">
@@ -17065,7 +17080,7 @@
       <c r="BA54" t="s">
         <v>0</v>
       </c>
-      <c r="BB54" t="s">
+      <c r="BB54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BC54" t="s">
@@ -17372,7 +17387,7 @@
       <c r="BB55" t="s">
         <v>0</v>
       </c>
-      <c r="BC55" t="s">
+      <c r="BC55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BD55" t="s">
@@ -17679,7 +17694,7 @@
       <c r="BC56" t="s">
         <v>0</v>
       </c>
-      <c r="BD56" t="s">
+      <c r="BD56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BE56" t="s">
@@ -17986,7 +18001,7 @@
       <c r="BD57" t="s">
         <v>0</v>
       </c>
-      <c r="BE57" t="s">
+      <c r="BE57" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BF57" t="s">
@@ -18293,7 +18308,7 @@
       <c r="BE58" t="s">
         <v>0</v>
       </c>
-      <c r="BF58" t="s">
+      <c r="BF58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BG58" t="s">
@@ -18600,7 +18615,7 @@
       <c r="BF59" t="s">
         <v>0</v>
       </c>
-      <c r="BG59" t="s">
+      <c r="BG59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BH59" t="s">
@@ -18907,7 +18922,7 @@
       <c r="BG60" t="s">
         <v>0</v>
       </c>
-      <c r="BH60" t="s">
+      <c r="BH60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BI60" t="s">
@@ -19214,7 +19229,7 @@
       <c r="BH61" t="s">
         <v>0</v>
       </c>
-      <c r="BI61" t="s">
+      <c r="BI61" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BJ61" t="s">
@@ -19521,7 +19536,7 @@
       <c r="BI62" t="s">
         <v>0</v>
       </c>
-      <c r="BJ62" t="s">
+      <c r="BJ62" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BK62" t="s">
@@ -19828,7 +19843,7 @@
       <c r="BJ63" t="s">
         <v>0</v>
       </c>
-      <c r="BK63" t="s">
+      <c r="BK63" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BL63" t="s">
@@ -20135,7 +20150,7 @@
       <c r="BK64" t="s">
         <v>0</v>
       </c>
-      <c r="BL64" t="s">
+      <c r="BL64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BM64" t="s">
@@ -20442,7 +20457,7 @@
       <c r="BL65" t="s">
         <v>0</v>
       </c>
-      <c r="BM65" t="s">
+      <c r="BM65" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BN65" t="s">
@@ -20749,7 +20764,7 @@
       <c r="BM66" t="s">
         <v>0</v>
       </c>
-      <c r="BN66" t="s">
+      <c r="BN66" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BO66" t="s">
@@ -21056,7 +21071,7 @@
       <c r="BN67" t="s">
         <v>0</v>
       </c>
-      <c r="BO67" t="s">
+      <c r="BO67" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BP67" t="s">
@@ -21363,7 +21378,7 @@
       <c r="BO68" t="s">
         <v>0</v>
       </c>
-      <c r="BP68" t="s">
+      <c r="BP68" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BQ68" t="s">
@@ -21670,7 +21685,7 @@
       <c r="BP69" t="s">
         <v>0</v>
       </c>
-      <c r="BQ69" t="s">
+      <c r="BQ69" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BR69" t="s">
@@ -21977,7 +21992,7 @@
       <c r="BQ70" t="s">
         <v>0</v>
       </c>
-      <c r="BR70" t="s">
+      <c r="BR70" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BS70" t="s">
@@ -22284,7 +22299,7 @@
       <c r="BR71" t="s">
         <v>0</v>
       </c>
-      <c r="BS71" t="s">
+      <c r="BS71" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BT71" t="s">
@@ -22591,7 +22606,7 @@
       <c r="BS72" t="s">
         <v>0</v>
       </c>
-      <c r="BT72" t="s">
+      <c r="BT72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BU72" t="s">
@@ -22898,7 +22913,7 @@
       <c r="BT73" t="s">
         <v>0</v>
       </c>
-      <c r="BU73" t="s">
+      <c r="BU73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BV73" t="s">
@@ -23205,7 +23220,7 @@
       <c r="BU74" t="s">
         <v>0</v>
       </c>
-      <c r="BV74" t="s">
+      <c r="BV74" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BW74" t="s">
@@ -23512,7 +23527,7 @@
       <c r="BV75" t="s">
         <v>0</v>
       </c>
-      <c r="BW75" t="s">
+      <c r="BW75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BX75" t="s">
@@ -23819,7 +23834,7 @@
       <c r="BW76" t="s">
         <v>0</v>
       </c>
-      <c r="BX76" t="s">
+      <c r="BX76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BY76" t="s">
@@ -24126,7 +24141,7 @@
       <c r="BX77" t="s">
         <v>0</v>
       </c>
-      <c r="BY77" t="s">
+      <c r="BY77" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BZ77" t="s">
@@ -24433,7 +24448,7 @@
       <c r="BY78" t="s">
         <v>0</v>
       </c>
-      <c r="BZ78" t="s">
+      <c r="BZ78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CA78" t="s">
@@ -24740,7 +24755,7 @@
       <c r="BZ79" t="s">
         <v>0</v>
       </c>
-      <c r="CA79" t="s">
+      <c r="CA79" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CB79" t="s">
@@ -25047,7 +25062,7 @@
       <c r="CA80" t="s">
         <v>0</v>
       </c>
-      <c r="CB80" t="s">
+      <c r="CB80" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CC80" t="s">
@@ -25354,7 +25369,7 @@
       <c r="CB81" t="s">
         <v>0</v>
       </c>
-      <c r="CC81" t="s">
+      <c r="CC81" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CD81" t="s">
@@ -25661,7 +25676,7 @@
       <c r="CC82" t="s">
         <v>0</v>
       </c>
-      <c r="CD82" t="s">
+      <c r="CD82" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CE82" t="s">
@@ -25968,7 +25983,7 @@
       <c r="CD83" t="s">
         <v>0</v>
       </c>
-      <c r="CE83" t="s">
+      <c r="CE83" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CF83" t="s">
@@ -26275,7 +26290,7 @@
       <c r="CE84" t="s">
         <v>0</v>
       </c>
-      <c r="CF84" t="s">
+      <c r="CF84" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CG84" t="s">
@@ -26582,7 +26597,7 @@
       <c r="CF85" t="s">
         <v>0</v>
       </c>
-      <c r="CG85" t="s">
+      <c r="CG85" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CH85" t="s">
@@ -26889,7 +26904,7 @@
       <c r="CG86" t="s">
         <v>0</v>
       </c>
-      <c r="CH86" t="s">
+      <c r="CH86" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CI86" t="s">
@@ -27196,7 +27211,7 @@
       <c r="CH87" t="s">
         <v>0</v>
       </c>
-      <c r="CI87" t="s">
+      <c r="CI87" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CJ87" t="s">
@@ -27503,7 +27518,7 @@
       <c r="CI88" t="s">
         <v>0</v>
       </c>
-      <c r="CJ88" t="s">
+      <c r="CJ88" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CK88" t="s">
@@ -27810,7 +27825,7 @@
       <c r="CJ89" t="s">
         <v>0</v>
       </c>
-      <c r="CK89" t="s">
+      <c r="CK89" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CL89" t="s">
@@ -28117,7 +28132,7 @@
       <c r="CK90" t="s">
         <v>0</v>
       </c>
-      <c r="CL90" t="s">
+      <c r="CL90" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CM90" t="s">
@@ -28424,7 +28439,7 @@
       <c r="CL91" t="s">
         <v>0</v>
       </c>
-      <c r="CM91" t="s">
+      <c r="CM91" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CN91" t="s">
@@ -28731,7 +28746,7 @@
       <c r="CM92" t="s">
         <v>0</v>
       </c>
-      <c r="CN92" t="s">
+      <c r="CN92" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CO92" t="s">
@@ -29038,7 +29053,7 @@
       <c r="CN93" t="s">
         <v>0</v>
       </c>
-      <c r="CO93" t="s">
+      <c r="CO93" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CP93" t="s">
@@ -29345,7 +29360,7 @@
       <c r="CO94" t="s">
         <v>0</v>
       </c>
-      <c r="CP94" t="s">
+      <c r="CP94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CQ94" t="s">
@@ -29652,7 +29667,7 @@
       <c r="CP95" t="s">
         <v>0</v>
       </c>
-      <c r="CQ95" t="s">
+      <c r="CQ95" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CR95" t="s">
@@ -29959,7 +29974,7 @@
       <c r="CQ96" t="s">
         <v>0</v>
       </c>
-      <c r="CR96" t="s">
+      <c r="CR96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CS96" t="s">
@@ -29978,7 +29993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97">
         <f t="shared" si="3"/>
@@ -30266,7 +30281,7 @@
       <c r="CR97" t="s">
         <v>0</v>
       </c>
-      <c r="CS97" t="s">
+      <c r="CS97" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CT97" t="s">
@@ -30282,7 +30297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98">
         <f t="shared" si="3"/>
@@ -30573,7 +30588,7 @@
       <c r="CS98" t="s">
         <v>0</v>
       </c>
-      <c r="CT98" t="s">
+      <c r="CT98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CU98" t="s">
@@ -30586,7 +30601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99">
         <f t="shared" si="3"/>
@@ -30880,7 +30895,7 @@
       <c r="CT99" t="s">
         <v>0</v>
       </c>
-      <c r="CU99" t="s">
+      <c r="CU99" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CV99" t="s">
@@ -30890,7 +30905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100">
         <f t="shared" si="3"/>
@@ -31187,14 +31202,14 @@
       <c r="CU100" t="s">
         <v>0</v>
       </c>
-      <c r="CV100" t="s">
+      <c r="CV100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CW100" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101">
         <f t="shared" si="3"/>
@@ -31494,9 +31509,12 @@
       <c r="CV101" t="s">
         <v>0</v>
       </c>
-      <c r="CW101" t="s">
-        <v>0</v>
-      </c>
+      <c r="CW101" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="CX102" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31504,5 +31522,6 @@
     <mergeCell ref="A3:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>